--- a/Stage/StageEdit.xlsx
+++ b/Stage/StageEdit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
   <si>
     <t>/</t>
     <phoneticPr fontId="18"/>
@@ -124,6 +124,46 @@
     <rPh sb="8" eb="9">
       <t>カベ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Stairs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Door</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Road</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>リスト</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -717,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,9 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -809,7 +846,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="118">
     <dxf>
       <numFmt numFmtId="176" formatCode=";;;"/>
       <fill>
@@ -1646,7 +1683,58 @@
       <numFmt numFmtId="176" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1662,31 +1750,7 @@
       <numFmt numFmtId="176" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1702,7 +1766,23 @@
       <numFmt numFmtId="176" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1982,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1993,11 +2073,12 @@
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.69921875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.796875" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2059,957 +2140,1001 @@
         <v>1</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(B14&gt;=3,2,B14)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>IF(B14&gt;=2,0,B14)</f>
-        <v>0</v>
-      </c>
       <c r="C2">
-        <f t="shared" ref="C2:S2" si="0">IF(C14&gt;=2,0,C14)</f>
-        <v>0</v>
+        <f t="shared" ref="C2:S2" si="0">IF(C14&gt;=3,2,C14)</f>
+        <v>2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(B13&gt;=3,2,B13)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:S3" si="1">IF(C13&gt;=3,2,C13)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(B12&gt;=3,2,B12)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:S4" si="2">IF(C12&gt;=3,2,C12)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>IF(B11&gt;=3,2,B11)</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="3">IF(C11&gt;=3,2,C11)</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>IF(B13&gt;=2,0,B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:S3" si="1">IF(C13&gt;=2,0,C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="X5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>IF(B10&gt;=3,2,B10)</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="4">IF(C10&gt;=3,2,C10)</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>IF(B12&gt;=2,0,B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:S4" si="2">IF(C12&gt;=2,0,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="X6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>IF(B9&gt;=3,2,B9)</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="5">IF(C9&gt;=3,2,C9)</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f>IF(B11&gt;=2,0,B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:S5" si="3">IF(C11&gt;=2,0,C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3" t="s">
+      <c r="X7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <f>IF(B10&gt;=2,0,B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:S6" si="4">IF(C10&gt;=2,0,C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <f>IF(B9&gt;=2,0,B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:S7" si="5">IF(C9&gt;=2,0,C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3070,63 +3195,77 @@
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Dvi9x/eFVhUM98Y74uo4QnJ/miePXmQz9n6erMd2Ca4g426DMLMC2Uh3iisCvSFUHeM8zFpLNnuCkIszTS/gw==" saltValue="NBLbIY/lIIXQ+Hw3AhmL9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:T15">
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
+  <conditionalFormatting sqref="B9:S14">
+    <cfRule type="cellIs" dxfId="117" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
+    <cfRule type="cellIs" dxfId="110" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:S8">
+    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="106" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="C9:S14 B10:B14">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_1_x000a_2" sqref="B8:S8">
-      <formula1>"1,2"</formula1>
+      <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9:S14">
-      <formula1>"0,1,2,3,4,5"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5305,7 +5444,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.796875" style="4"/>
+    <col min="23" max="23" width="8.796875" style="3"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5373,7 +5512,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5459,7 +5598,7 @@
       <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5545,7 +5684,7 @@
       <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5631,7 +5770,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5717,7 +5856,7 @@
       <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5803,13 +5942,13 @@
       <c r="V6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -6444,7 +6583,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.796875" style="5"/>
+    <col min="23" max="23" width="8.796875" style="4"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6512,7 +6651,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6598,7 +6737,7 @@
       <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6684,7 +6823,7 @@
       <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6770,7 +6909,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6856,7 +6995,7 @@
       <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6942,13 +7081,13 @@
       <c r="V6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -7583,7 +7722,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.796875" style="6"/>
+    <col min="23" max="23" width="8.796875" style="5"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7651,7 +7790,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7737,7 +7876,7 @@
       <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7823,7 +7962,7 @@
       <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7909,7 +8048,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7995,7 +8134,7 @@
       <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8081,13 +8220,13 @@
       <c r="V6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -8722,7 +8861,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.796875" style="7"/>
+    <col min="23" max="23" width="8.796875" style="6"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8790,7 +8929,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8876,7 +9015,7 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8962,7 +9101,7 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9048,7 +9187,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9134,7 +9273,7 @@
       <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9220,13 +9359,13 @@
       <c r="V6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -9861,7 +10000,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.796875" style="8"/>
+    <col min="23" max="23" width="8.796875" style="7"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9929,7 +10068,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10015,7 +10154,7 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10101,7 +10240,7 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10187,7 +10326,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10273,7 +10412,7 @@
       <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10359,13 +10498,13 @@
       <c r="V6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -11000,7 +11139,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.796875" style="9"/>
+    <col min="23" max="23" width="8.796875" style="8"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11068,7 +11207,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11154,7 +11293,7 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11240,7 +11379,7 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11326,7 +11465,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11412,7 +11551,7 @@
       <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11498,13 +11637,13 @@
       <c r="V6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -12141,7 +12280,7 @@
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.69921875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="15.69921875" style="9" customWidth="1"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12209,7 +12348,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12295,7 +12434,7 @@
       <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12381,7 +12520,7 @@
       <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12467,7 +12606,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12553,7 +12692,7 @@
       <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12639,7 +12778,7 @@
       <c r="V6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13221,13 +13360,13 @@
       <c r="V15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4Dvi9x/eFVhUM98Y74uo4QnJ/miePXmQz9n6erMd2Ca4g426DMLMC2Uh3iisCvSFUHeM8zFpLNnuCkIszTS/gw==" saltValue="NBLbIY/lIIXQ+Hw3AhmL9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -13291,7 +13430,7 @@
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.69921875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="15.69921875" style="10" customWidth="1"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13359,7 +13498,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13445,7 +13584,7 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13531,7 +13670,7 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13617,7 +13756,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13703,7 +13842,7 @@
       <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13789,7 +13928,7 @@
       <c r="V6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -14371,13 +14510,13 @@
       <c r="V15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4Dvi9x/eFVhUM98Y74uo4QnJ/miePXmQz9n6erMd2Ca4g426DMLMC2Uh3iisCvSFUHeM8zFpLNnuCkIszTS/gw==" saltValue="NBLbIY/lIIXQ+Hw3AhmL9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -15523,7 +15662,7 @@
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.69921875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="15.69921875" style="11" customWidth="1"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15591,7 +15730,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15677,7 +15816,7 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15763,7 +15902,7 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15849,7 +15988,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -15935,7 +16074,7 @@
       <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16021,7 +16160,7 @@
       <c r="V6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -16603,13 +16742,13 @@
       <c r="V15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4Dvi9x/eFVhUM98Y74uo4QnJ/miePXmQz9n6erMd2Ca4g426DMLMC2Uh3iisCvSFUHeM8zFpLNnuCkIszTS/gw==" saltValue="NBLbIY/lIIXQ+Hw3AhmL9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -16664,7 +16803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -16673,7 +16812,7 @@
     <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.3984375" customWidth="1"/>
     <col min="3" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.69921875" style="13" customWidth="1"/>
+    <col min="23" max="23" width="15.69921875" style="12" customWidth="1"/>
     <col min="25" max="25" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16741,7 +16880,7 @@
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16827,7 +16966,7 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16913,7 +17052,7 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16999,7 +17138,7 @@
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17085,7 +17224,7 @@
       <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -17171,7 +17310,7 @@
       <c r="V6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -17753,13 +17892,13 @@
       <c r="V15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4Dvi9x/eFVhUM98Y74uo4QnJ/miePXmQz9n6erMd2Ca4g426DMLMC2Uh3iisCvSFUHeM8zFpLNnuCkIszTS/gw==" saltValue="NBLbIY/lIIXQ+Hw3AhmL9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/Stage/StageEdit.xlsx
+++ b/Stage/StageEdit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -33,13 +33,15 @@
     <sheet name="Stage18" sheetId="47" r:id="rId19"/>
     <sheet name="Stage19" sheetId="48" r:id="rId20"/>
     <sheet name="Stage20" sheetId="49" r:id="rId21"/>
+    <sheet name="Stage21" sheetId="50" r:id="rId22"/>
+    <sheet name="Stage22" sheetId="51" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="15">
   <si>
     <t>/</t>
     <phoneticPr fontId="18"/>
@@ -765,7 +767,221 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="294">
+  <dxfs count="322">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
       <fill>
@@ -4430,52 +4646,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="293" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="286" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="285" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="282" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5638,52 +5854,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="160" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="156" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6843,52 +7059,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="145" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8048,52 +8264,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="132" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="131" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9253,52 +9469,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="118" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10458,52 +10674,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11663,52 +11879,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12870,52 +13086,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14077,52 +14293,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15284,52 +15500,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16491,52 +16707,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16557,7 +16773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -17696,52 +17912,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="279" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="272" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="271" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="268" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18903,52 +19119,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20110,6 +20326,2424 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:S8">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:S7">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9:S14">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_1_x000a_2" sqref="B8:S8">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(B14=0,2,IF(B14&gt;=3,2,B14))</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:S2" si="0">IF(C14=0,2,IF(C14&gt;=3,2,C14))</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(B13=0,2,IF(B13&gt;=3,2,B13))</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:S3" si="1">IF(C13=0,2,IF(C13&gt;=3,2,C13))</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(B12=0,2,IF(B12&gt;=3,2,B12))</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:S4" si="2">IF(C12=0,2,IF(C12&gt;=3,2,C12))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>IF(B11=0,2,IF(B11&gt;=3,2,B11))</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="3">IF(C11=0,2,IF(C11&gt;=3,2,C11))</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>IF(B10=0,2,IF(B10&gt;=3,2,B10))</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="4">IF(C10=0,2,IF(C10&gt;=3,2,C10))</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>IF(B9=0,2,IF(B9&gt;=3,2,B9))</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="5">IF(C9=0,2,IF(C9&gt;=3,2,C9))</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>6</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B9:S14">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:S8">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:S7">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_1_x000a_2" sqref="B8:S8">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9:S14">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(B14=0,2,IF(B14&gt;=3,2,B14))</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:S2" si="0">IF(C14=0,2,IF(C14&gt;=3,2,C14))</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(B13=0,2,IF(B13&gt;=3,2,B13))</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:S3" si="1">IF(C13=0,2,IF(C13&gt;=3,2,C13))</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(B12=0,2,IF(B12&gt;=3,2,B12))</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:S4" si="2">IF(C12=0,2,IF(C12&gt;=3,2,C12))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>IF(B11=0,2,IF(B11&gt;=3,2,B11))</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="3">IF(C11=0,2,IF(C11&gt;=3,2,C11))</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>IF(B10=0,2,IF(B10&gt;=3,2,B10))</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="4">IF(C10=0,2,IF(C10&gt;=3,2,C10))</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>IF(B9=0,2,IF(B9&gt;=3,2,B9))</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="5">IF(C9=0,2,IF(C9&gt;=3,2,C9))</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B9:S14">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -21315,52 +23949,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="265" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="258" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="254" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22520,52 +25154,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="244" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="243" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="240" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23725,52 +26359,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="237" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="230" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="229" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24930,52 +27564,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="215" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26135,52 +28769,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="202" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="201" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="198" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27340,52 +29974,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="188" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="187" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="184" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28545,52 +31179,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="181" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="174" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="173" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="170" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Stage/StageEdit.xlsx
+++ b/Stage/StageEdit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="19" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="17" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -35,13 +35,16 @@
     <sheet name="Stage20" sheetId="49" r:id="rId21"/>
     <sheet name="Stage21" sheetId="50" r:id="rId22"/>
     <sheet name="Stage22" sheetId="51" r:id="rId23"/>
+    <sheet name="Stage23" sheetId="52" r:id="rId24"/>
+    <sheet name="Stage24" sheetId="53" r:id="rId25"/>
+    <sheet name="Stage25" sheetId="54" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="15">
   <si>
     <t>/</t>
     <phoneticPr fontId="18"/>
@@ -767,7 +770,328 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="322">
+  <dxfs count="364">
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
       <fill>
@@ -3508,7 +3832,7 @@
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4640,58 +4964,59 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="m+dZwMAdXfNB7QG4dSCDO+pE2mve+sXJAJrC7wmdSXybGnKTUzMtMpBze18jAESXB6mF2zinStbO6/O8ScK3+Q==" saltValue="Nk7cnaTUC9HgOrQCngYXwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="321" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="314" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="313" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="310" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5854,52 +6179,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="188" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="187" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="184" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7059,52 +7384,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="181" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="174" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="173" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="170" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8264,52 +8589,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="160" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="156" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9469,52 +9794,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="145" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10674,52 +10999,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="132" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="131" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11879,52 +12204,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="118" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13086,52 +13411,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14293,52 +14618,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15500,52 +15825,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16707,52 +17032,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17912,52 +18237,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="307" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="300" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="299" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="296" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19119,52 +19444,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20326,52 +20651,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21535,52 +21860,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21601,7 +21926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -22744,25 +23069,3653 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:S8">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:S7">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9:S14">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_1_x000a_2" sqref="B8:S8">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(B14=0,2,IF(B14&gt;=3,2,B14))</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:S2" si="0">IF(C14=0,2,IF(C14&gt;=3,2,C14))</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(B13=0,2,IF(B13&gt;=3,2,B13))</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:S3" si="1">IF(C13=0,2,IF(C13&gt;=3,2,C13))</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(B12=0,2,IF(B12&gt;=3,2,B12))</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:S4" si="2">IF(C12=0,2,IF(C12&gt;=3,2,C12))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>IF(B11=0,2,IF(B11&gt;=3,2,B11))</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="3">IF(C11=0,2,IF(C11&gt;=3,2,C11))</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>IF(B10=0,2,IF(B10&gt;=3,2,B10))</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="4">IF(C10=0,2,IF(C10&gt;=3,2,C10))</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>IF(B9=0,2,IF(B9&gt;=3,2,B9))</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="5">IF(C9=0,2,IF(C9&gt;=3,2,C9))</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B9:S14">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:S8">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:S7">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_1_x000a_2" sqref="B8:S8">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9:S14">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(B14=0,2,IF(B14&gt;=3,2,B14))</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:S2" si="0">IF(C14=0,2,IF(C14&gt;=3,2,C14))</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(B13=0,2,IF(B13&gt;=3,2,B13))</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:S3" si="1">IF(C13=0,2,IF(C13&gt;=3,2,C13))</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(B12=0,2,IF(B12&gt;=3,2,B12))</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:S4" si="2">IF(C12=0,2,IF(C12&gt;=3,2,C12))</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>IF(B11=0,2,IF(B11&gt;=3,2,B11))</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="3">IF(C11=0,2,IF(C11&gt;=3,2,C11))</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>IF(B10=0,2,IF(B10&gt;=3,2,B10))</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="4">IF(C10=0,2,IF(C10&gt;=3,2,C10))</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>IF(B9=0,2,IF(B9&gt;=3,2,B9))</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="5">IF(C9=0,2,IF(C9&gt;=3,2,C9))</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2">
+        <v>6</v>
+      </c>
+      <c r="S9" s="2">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2">
+        <v>6</v>
+      </c>
+      <c r="S11" s="2">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>6</v>
+      </c>
+      <c r="N12" s="2">
+        <v>6</v>
+      </c>
+      <c r="O12" s="2">
+        <v>6</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>6</v>
+      </c>
+      <c r="S12" s="2">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6</v>
+      </c>
+      <c r="N13" s="2">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2">
+        <v>6</v>
+      </c>
+      <c r="P13" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>6</v>
+      </c>
+      <c r="S13" s="2">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>6</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2">
+        <v>6</v>
+      </c>
+      <c r="S14" s="2">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B9:S14">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:S8">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:S7">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_0_x000a_1_x000a_2" sqref="B9:S14">
+      <formula1>"0,1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="エラー" error="入力可能リスト_x000a_1_x000a_2" sqref="B8:S8">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" customWidth="1"/>
+    <col min="3" max="20" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(B14=0,2,IF(B14&gt;=3,2,B14))</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:S2" si="0">IF(C14=0,2,IF(C14&gt;=3,2,C14))</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(B13=0,2,IF(B13&gt;=3,2,B13))</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:S3" si="1">IF(C13=0,2,IF(C13&gt;=3,2,C13))</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(B12=0,2,IF(B12&gt;=3,2,B12))</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:S4" si="2">IF(C12=0,2,IF(C12&gt;=3,2,C12))</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>IF(B11=0,2,IF(B11&gt;=3,2,B11))</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="3">IF(C11=0,2,IF(C11&gt;=3,2,C11))</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>IF(B10=0,2,IF(B10&gt;=3,2,B10))</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="4">IF(C10=0,2,IF(C10&gt;=3,2,C10))</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>IF(B9=0,2,IF(B9&gt;=3,2,B9))</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:S7" si="5">IF(C9=0,2,IF(C9&gt;=3,2,C9))</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="m+dZwMAdXfNB7QG4dSCDO+pE2mve+sXJAJrC7wmdSXybGnKTUzMtMpBze18jAESXB6mF2zinStbO6/O8ScK3+Q==" saltValue="Nk7cnaTUC9HgOrQCngYXwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B9:S14">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22772,24 +26725,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23949,52 +27902,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="293" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="286" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="285" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="282" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25154,52 +29107,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="279" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="272" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="271" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="268" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26359,52 +30312,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="265" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="258" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="254" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27564,52 +31517,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="244" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="243" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="240" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28769,52 +32722,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="237" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="230" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="229" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29974,52 +33927,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="215" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31179,52 +35132,52 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:S1 A2:A15 B15:T15 T1:T14">
-    <cfRule type="cellIs" dxfId="202" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="201" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="198" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Stage/StageEdit.xlsx
+++ b/Stage/StageEdit.xlsx
@@ -772,6 +772,22 @@
   </cellStyles>
   <dxfs count="364">
     <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="177" formatCode=";;;"/>
       <fill>
         <patternFill>
@@ -788,12 +804,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;M&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="177" formatCode=";;;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode=";;;"/>
@@ -805,6 +816,19 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="\P"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode=";;;"/>
@@ -818,7 +842,7 @@
       <numFmt numFmtId="177" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -826,7 +850,15 @@
       <numFmt numFmtId="177" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -842,39 +874,7 @@
       <numFmt numFmtId="177" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="\P"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -24347,7 +24347,7 @@
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24472,7 +24472,7 @@
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
@@ -24592,7 +24592,7 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
@@ -24859,7 +24859,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
@@ -24908,7 +24908,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
@@ -25064,13 +25064,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>6</v>
@@ -25156,16 +25156,16 @@
         <v>6</v>
       </c>
       <c r="O10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="2">
         <v>5</v>
       </c>
       <c r="R10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S10" s="2">
         <v>6</v>
@@ -25197,7 +25197,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2">
         <v>6</v>
@@ -25244,7 +25244,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -25265,7 +25265,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
         <v>6</v>
@@ -25280,7 +25280,7 @@
         <v>6</v>
       </c>
       <c r="O12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="2">
         <v>6</v>
@@ -25289,7 +25289,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S12" s="2">
         <v>6</v>
@@ -25303,7 +25303,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -25336,13 +25336,13 @@
         <v>6</v>
       </c>
       <c r="M13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N13" s="2">
         <v>6</v>
       </c>
       <c r="O13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>6</v>
@@ -25374,7 +25374,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
         <v>6</v>
@@ -25386,7 +25386,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <v>6</v>
@@ -25558,7 +25558,7 @@
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -26213,10 +26213,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -26697,25 +26697,25 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B9:S14">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26725,24 +26725,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:S8">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:S7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
